--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_4_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_4_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325901.034300575</v>
+        <v>3325901.034300574</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177243</v>
+        <v>3940022.790763144</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177243</v>
+        <v>3940022.790763144</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494247180.596206</v>
+        <v>56687243.12577439</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C2" t="n">
         <v>449.4745782429939</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -758,10 +758,10 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I3" t="n">
         <v>108.929687778141</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E5" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F5" t="n">
         <v>404.8896287080119</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U8" t="n">
         <v>648.751427201877</v>
@@ -1235,10 +1235,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I9" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C11" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
         <v>410.3391557398498</v>
@@ -1429,7 +1429,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1551,49 +1551,49 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1788,52 +1788,52 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U17" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V17" t="n">
         <v>629.8510241668239</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S18" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>67.808644398718</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822440399</v>
+        <v>352.1613821978832</v>
       </c>
       <c r="S30" t="n">
-        <v>408.1929150587945</v>
+        <v>406.659215104951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708777347</v>
@@ -2973,49 +2973,49 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U32" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V32" t="n">
         <v>629.8510241668239</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U37" t="n">
-        <v>67.808644398718</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D38" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E38" t="n">
         <v>404.3632896068686</v>
@@ -3523,7 +3523,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3814,7 +3814,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y41" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="42">
@@ -3985,13 +3985,13 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D44" t="n">
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
@@ -4170,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4333,55 +4333,55 @@
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>2153.765102156982</v>
+        <v>1794.645504192963</v>
       </c>
       <c r="L2" t="n">
-        <v>3071.357825473565</v>
+        <v>2712.238227509546</v>
       </c>
       <c r="M2" t="n">
-        <v>3553.537024987068</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N2" t="n">
-        <v>4118.58008885974</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O2" t="n">
-        <v>5028.734971800483</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P2" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
         <v>250.9899876546879</v>
@@ -4506,13 +4506,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,13 +4549,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
         <v>1303.215227044376</v>
@@ -4579,46 +4579,46 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L5" t="n">
-        <v>3071.357825473565</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M5" t="n">
-        <v>3553.537024987068</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N5" t="n">
-        <v>4118.58008885974</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O5" t="n">
-        <v>5028.734971800483</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4737,10 +4737,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
         <v>457.4949902104935</v>
@@ -4813,31 +4813,31 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1936.671378010443</v>
+        <v>2053.555015773446</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
         <v>6118.11576243671</v>
@@ -4883,7 +4883,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4944,37 +4944,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
         <v>457.4949902104935</v>
@@ -4995,25 +4995,25 @@
         <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
         <v>2126.146990020859</v>
@@ -5044,31 +5044,31 @@
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K11" t="n">
-        <v>1339.420289043491</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L11" t="n">
-        <v>2257.013012360075</v>
+        <v>3585.390275303557</v>
       </c>
       <c r="M11" t="n">
-        <v>3194.417427023049</v>
+        <v>4067.569474817059</v>
       </c>
       <c r="N11" t="n">
-        <v>4845.157279159621</v>
+        <v>4632.612538689732</v>
       </c>
       <c r="O11" t="n">
-        <v>5755.312162100365</v>
+        <v>5542.767421630476</v>
       </c>
       <c r="P11" t="n">
-        <v>6591.179490197778</v>
+        <v>6378.634749727889</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
@@ -5077,22 +5077,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5241,16 +5241,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5287,25 +5287,25 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K14" t="n">
-        <v>2153.765102156982</v>
+        <v>2270.648739919985</v>
       </c>
       <c r="L14" t="n">
-        <v>3071.357825473565</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M14" t="n">
-        <v>3553.537024987068</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N14" t="n">
-        <v>4118.58008885974</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O14" t="n">
-        <v>5028.734971800483</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299897897</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5481,13 +5481,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5518,31 +5518,31 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>2124.71495243113</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L17" t="n">
-        <v>3681.051378010443</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523946</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396618</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>4924.096525034862</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5551,7 +5551,7 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U17" t="n">
         <v>5462.811290515621</v>
@@ -5624,7 +5624,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5712,19 +5712,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5755,25 +5755,25 @@
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>1091.030813794195</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1830.673957362034</v>
+        <v>2018.47013910948</v>
       </c>
       <c r="L20" t="n">
-        <v>2748.266680678617</v>
+        <v>2936.062862426063</v>
       </c>
       <c r="M20" t="n">
-        <v>4280.114215286949</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N20" t="n">
-        <v>4845.157279159621</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O20" t="n">
-        <v>5755.312162100365</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P20" t="n">
         <v>6591.179490197778</v>
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5922,46 +5922,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>2018.47013910948</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L23" t="n">
-        <v>2936.062862426063</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M23" t="n">
-        <v>3418.242061939566</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N23" t="n">
-        <v>3983.285125812238</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O23" t="n">
-        <v>4893.440008752982</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P23" t="n">
         <v>6591.179490197778</v>
@@ -6183,13 +6183,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
         <v>140.96</v>
@@ -6229,31 +6229,31 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>1765.421978263786</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L26" t="n">
-        <v>2683.01470158037</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M26" t="n">
-        <v>3165.193901093872</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N26" t="n">
-        <v>4815.933753230444</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O26" t="n">
-        <v>5726.088636171188</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P26" t="n">
-        <v>6561.955964268602</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q26" t="n">
-        <v>7018.776474070823</v>
+        <v>7048</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6366,25 +6366,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
         <v>140.96</v>
@@ -6426,16 +6426,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6484,13 +6484,13 @@
         <v>3379.82357278602</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.978455726764</v>
+        <v>5124.203572786019</v>
       </c>
       <c r="P29" t="n">
-        <v>5987.71793717156</v>
+        <v>5960.070900883433</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
@@ -6572,7 +6572,7 @@
         <v>5925.707874250955</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498246874</v>
+        <v>5569.989306374305</v>
       </c>
       <c r="S30" t="n">
         <v>5159.22242242991</v>
@@ -6603,22 +6603,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
         <v>140.96</v>
@@ -6663,16 +6663,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6703,31 +6703,31 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K32" t="n">
-        <v>1936.671378010443</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010443</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523946</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396618</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
@@ -6736,7 +6736,7 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
         <v>5462.811290515621</v>
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6897,19 +6897,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6946,25 +6946,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1901.586501346477</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>2819.17922466306</v>
+        <v>3159.388586083262</v>
       </c>
       <c r="M35" t="n">
-        <v>3301.358424176563</v>
+        <v>3641.567785596765</v>
       </c>
       <c r="N35" t="n">
-        <v>3866.401488049235</v>
+        <v>4206.610849469437</v>
       </c>
       <c r="O35" t="n">
-        <v>4776.556370989979</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
         <v>140.96</v>
@@ -7131,22 +7131,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
         <v>492.3327682960356</v>
@@ -7177,28 +7177,28 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>210.3162975291112</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>669.1334430047632</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>1408.776586572602</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>2326.369309889185</v>
+        <v>2963.70989871419</v>
       </c>
       <c r="M38" t="n">
-        <v>2808.548509402688</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N38" t="n">
-        <v>3373.59157327536</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O38" t="n">
-        <v>4283.746456216104</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P38" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q38" t="n">
         <v>7048</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7344,46 +7344,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
         <v>1303.215227044376</v>
@@ -7420,25 +7420,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337362</v>
+        <v>5124.203572786019</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
@@ -7462,7 +7462,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7633,10 +7633,10 @@
         <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
         <v>1303.215227044376</v>
@@ -7651,31 +7651,31 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K44" t="n">
-        <v>2124.71495243113</v>
+        <v>2270.648739919985</v>
       </c>
       <c r="L44" t="n">
-        <v>3071.357825473565</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M44" t="n">
-        <v>3553.537024987068</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N44" t="n">
-        <v>4118.58008885974</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800483</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897897</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
@@ -7818,37 +7818,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
         <v>140.96</v>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>315.9139665186112</v>
+        <v>459.8234496459311</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>746.2187031047679</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8236,16 +8236,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>609.5571242689077</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q5" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>526.9321130577587</v>
+        <v>644.9963936264489</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165826</v>
+        <v>835.1386633165828</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8692,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M11" t="n">
-        <v>459.8234496459305</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8716,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>96.62737647160191</v>
       </c>
       <c r="R11" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>315.9139665186112</v>
+        <v>433.9782470873015</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,13 +9187,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>839.6117546116188</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
-        <v>419.8640113926995</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>685.9089394605951</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>609.557124268908</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>763.2599394199326</v>
       </c>
       <c r="P23" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,19 +9892,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>763.2599394199324</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>205.9955488254438</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10132,16 +10132,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>609.5571242689075</v>
+        <v>519.419142981154</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,16 +10351,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>835.1386633165826</v>
+        <v>223.759681342046</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10375,10 +10375,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>491.4928437002177</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10606,16 +10606,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>644.9963936264483</v>
       </c>
       <c r="P35" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>114.3520667231144</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>713.8352387415312</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,13 +10843,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P38" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>176.4768357656695</v>
@@ -11068,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,16 +11080,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>637.4834235498436</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>510.3300622789889</v>
       </c>
       <c r="L44" t="n">
-        <v>29.34358558166878</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23266,58 +23266,58 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.38834429297799</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23481,7 +23481,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U17" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23952,13 +23952,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
-        <v>226.3728098387097</v>
+        <v>211.9747076517084</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24432,7 +24432,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24627,7 +24627,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>131.3616658174982</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.533699953843268</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699953843495</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
         <v>97.40414414470841</v>
@@ -24903,7 +24903,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25137,10 +25137,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25338,7 +25338,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U37" t="n">
-        <v>83.00604195770714</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>199.1703102162162</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>107.6476277959926</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>226.3728098387097</v>
+        <v>93.01594453502963</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25702,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26058,16 +26058,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O46" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P46" t="n">
         <v>368.8061924102448</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15184.78357961384</v>
+        <v>1253038.088453473</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30192.00001986756</v>
+        <v>2480930.702777752</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45199.21646012127</v>
+        <v>3708823.317102033</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62279.9446026502</v>
+        <v>4808665.190726486</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79360.67274517912</v>
+        <v>5908507.064350938</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96441.40088770805</v>
+        <v>7008348.937975385</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113522.129030237</v>
+        <v>8108190.811599828</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130602.8571727659</v>
+        <v>9208032.685224272</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147683.5853152948</v>
+        <v>10307874.55884872</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164764.3134578219</v>
+        <v>11407716.43247348</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181845.0416003508</v>
+        <v>12507558.30609793</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198925.7697428797</v>
+        <v>13607400.17972238</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216006.4978854088</v>
+        <v>14707242.05334684</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233087.226027938</v>
+        <v>15807083.92697131</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250167.9541704672</v>
+        <v>16906925.80059577</v>
       </c>
     </row>
   </sheetData>
@@ -26319,25 +26319,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.206257761</v>
+        <v>976017.2062577605</v>
       </c>
       <c r="C2" t="n">
         <v>976017.2062577606</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577606</v>
+        <v>976017.2062577608</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.284163025</v>
       </c>
       <c r="F2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="G2" t="n">
         <v>874233.2841630249</v>
       </c>
-      <c r="G2" t="n">
-        <v>874233.284163025</v>
-      </c>
       <c r="H2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="I2" t="n">
         <v>874233.2841630249</v>
@@ -26349,10 +26349,10 @@
         <v>874233.2841632827</v>
       </c>
       <c r="L2" t="n">
-        <v>874233.2841630252</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="M2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630246</v>
       </c>
       <c r="N2" t="n">
         <v>874233.2841630249</v>
@@ -26361,7 +26361,7 @@
         <v>874233.2841630247</v>
       </c>
       <c r="P2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630246</v>
       </c>
     </row>
     <row r="3">
@@ -26432,28 +26432,28 @@
         <v>101044.2291618175</v>
       </c>
       <c r="E4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="F4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="G4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="I4" t="n">
         <v>26356.19966309947</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26356.19966309947</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26356.19966309946</v>
       </c>
       <c r="J4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="K4" t="n">
-        <v>26356.19966328368</v>
+        <v>26356.1996632837</v>
       </c>
       <c r="L4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="M4" t="n">
         <v>26356.19966309946</v>
@@ -26533,34 +26533,34 @@
         <v>702063.6164260102</v>
       </c>
       <c r="D6" t="n">
-        <v>702365.9770959432</v>
+        <v>702365.9770959433</v>
       </c>
       <c r="E6" t="n">
+        <v>708897.6844999255</v>
+      </c>
+      <c r="F6" t="n">
         <v>708897.6844999252</v>
-      </c>
-      <c r="F6" t="n">
-        <v>708897.6844999255</v>
       </c>
       <c r="G6" t="n">
         <v>708897.6844999255</v>
       </c>
       <c r="H6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999255</v>
       </c>
       <c r="I6" t="n">
         <v>708897.6844999255</v>
       </c>
       <c r="J6" t="n">
-        <v>88673.68449992529</v>
+        <v>88673.68449992526</v>
       </c>
       <c r="K6" t="n">
         <v>708897.684499999</v>
       </c>
       <c r="L6" t="n">
-        <v>708897.6844999257</v>
+        <v>708897.6844999252</v>
       </c>
       <c r="M6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999252</v>
       </c>
       <c r="N6" t="n">
         <v>708897.6844999255</v>
@@ -26569,7 +26569,7 @@
         <v>708897.6844999252</v>
       </c>
       <c r="P6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999252</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27702,10 +27702,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>319.1859637116847</v>
+        <v>187.2441835284046</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
         <v>368.8061924102448</v>
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27933,13 +27933,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
@@ -28033,10 +28033,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28079,10 +28079,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -28191,10 +28191,10 @@
         <v>400</v>
       </c>
       <c r="S10" t="n">
-        <v>400</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T10" t="n">
-        <v>266.3924756327198</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U10" t="n">
         <v>150.8146863564251</v>
@@ -34825,22 +34825,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1063.028252950772</v>
+        <v>1206.937736078092</v>
       </c>
       <c r="L2" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
@@ -34849,10 +34849,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34998,10 +34998,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>151.1650359809836</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35071,7 +35071,7 @@
         <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>1673.080039788185</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35080,16 +35080,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1528.90549087572</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q5" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35229,13 +35229,13 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>151.1650359809837</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35305,7 +35305,7 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1274.04639948992</v>
+        <v>1392.11068005861</v>
       </c>
       <c r="L8" t="n">
         <v>1762</v>
@@ -35326,7 +35326,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35487,10 +35487,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>83.54024160861997</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>67.62479437236371</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -35536,22 +35536,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>926.8613366834174</v>
+        <v>1762</v>
       </c>
       <c r="M11" t="n">
-        <v>946.8731461242162</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
@@ -35560,10 +35560,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>558.0622348576843</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35779,7 +35779,7 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>1063.028252950772</v>
+        <v>1181.092533519462</v>
       </c>
       <c r="L14" t="n">
         <v>926.861336683417</v>
@@ -35800,7 +35800,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36010,16 +36010,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L17" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36031,13 +36031,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1683.922187033249</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,19 +36247,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>883.3156734893178</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321607</v>
+        <v>1433.023225892756</v>
       </c>
       <c r="L20" t="n">
         <v>926.8613366834172</v>
       </c>
       <c r="M20" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36268,7 +36268,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
         <v>461.4348583860824</v>
@@ -36490,10 +36490,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1356.671410701069</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,10 +36502,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1682.608306026744</v>
       </c>
       <c r="P23" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36721,34 +36721,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1607.570371841562</v>
       </c>
       <c r="Q26" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>29.51871305977425</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36976,16 +36976,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P29" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>1070.99198265499</v>
+        <v>980.8540013672364</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37195,16 +37195,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>1150.621018025463</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37219,10 +37219,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37438,10 +37438,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1238.607130132378</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834172</v>
+        <v>1762</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37450,16 +37450,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1564.34476023326</v>
       </c>
       <c r="P35" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>70.05686619102138</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>463.4516620966183</v>
@@ -37678,7 +37678,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834172</v>
+        <v>1640.696575424948</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37687,13 +37687,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P38" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37912,10 +37912,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L41" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,16 +37924,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1481.793855971474</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38143,16 +38143,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>1257.44434871115</v>
       </c>
       <c r="L44" t="n">
-        <v>956.2049222650858</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38170,7 +38170,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
